--- a/Contraint/contraint_capaciteRoom_typesRoom_parPopulation.xlsx
+++ b/Contraint/contraint_capaciteRoom_typesRoom_parPopulation.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Evaluation_Population</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>id_Population</t>
-  </si>
-  <si>
-    <t>[[0, 2, 3, 15], [1, 1, 9, 0], [2, 1, 7, 14], [3, 2, 3, 9], [4, 3, 1, 17], [5, 3, 2, 2], [6, 1, 0, 0], [7, 2, 7, 3], [8, 1, 0, 9], [9, 1, 0, 1], [10, 1, 7, 3], [11, 1, 6, 14], [12, 1, 3, 13], [13, 2, 5, 8], [14, 3, 6, 4], [15, 2, 5, 7], [16, 0, 3, 11], [17, 2, 1, 0], [18, 2, 0, 7], [19, 1, 1, 14], [20, 0, 8, 8], [21, 3, 2, 17]]</t>
-  </si>
-  <si>
-    <t>[[0, 2, 6, 9], [1, 2, 5, 17], [2, 3, 2, 21], [3, 2, 3, 19], [4, 1, 8, 9], [5, 3, 4, 2], [6, 2, 4, 12], [7, 3, 3, 18], [8, 2, 6, 0], [9, 3, 9, 14], [10, 1, 8, 0], [11, 2, 6, 10], [12, 3, 4, 8], [13, 2, 0, 23], [14, 0, 9, 4], [15, 2, 7, 18], [16, 2, 7, 11], [17, 0, 9, 11], [18, 0, 5, 3], [19, 3, 8, 20], [20, 3, 3, 6], [21, 3, 2, 3]]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,53 +420,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Evaluation_Population</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Population</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>id_Population</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>292</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[[0, 0, 9, 10], [1, 0, 6, 0], [2, 0, 6, 20], [3, 0, 3, 13], [4, 2, 4, 1], [5, 0, 9, 11], [6, 2, 5, 7], [7, 2, 1, 15], [8, 1, 1, 21], [9, 1, 2, 10], [10, 0, 5, 10], [11, 0, 2, 8], [12, 1, 8, 20], [13, 1, 4, 16], [14, 0, 8, 17], [15, 3, 5, 14], [16, 0, 0, 2], [17, 2, 0, 19], [18, 1, 6, 16], [19, 0, 9, 0], [20, 1, 2, 19], [21, 2, 6, 6], [22, 3, 2, 17], [23, 3, 1, 13], [24, 1, 9, 20], [25, 1, 9, 20], [26, 2, 0, 2], [27, 2, 9, 8], [28, 1, 2, 13], [29, 2, 6, 19], [30, 2, 1, 17], [31, 3, 2, 18], [32, 1, 9, 17], [33, 2, 4, 3], [34, 2, 8, 12], [35, 3, 0, 4], [36, 1, 0, 8], [37, 0, 0, 16], [38, 1, 3, 1], [39, 0, 2, 7]]</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="n">
+        <v>292</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[[0, 2, 1, 14], [1, 3, 3, 7], [2, 0, 9, 20], [3, 0, 2, 2], [4, 2, 6, 5], [5, 2, 6, 6], [6, 2, 5, 3], [7, 1, 4, 16], [8, 1, 2, 20], [9, 3, 3, 1], [10, 1, 0, 15], [11, 1, 2, 8], [12, 1, 9, 13], [13, 2, 6, 12], [14, 0, 1, 15], [15, 1, 4, 12], [16, 0, 3, 9], [17, 3, 5, 7], [18, 3, 1, 3], [19, 3, 0, 2], [20, 2, 7, 14], [21, 0, 8, 11], [22, 1, 5, 20], [23, 3, 4, 11], [24, 1, 9, 4], [25, 2, 6, 18], [26, 3, 5, 4], [27, 1, 3, 20], [28, 0, 2, 19], [29, 3, 3, 13], [30, 3, 2, 10], [31, 3, 7, 12], [32, 0, 2, 7], [33, 0, 7, 6], [34, 1, 2, 9], [35, 0, 8, 0], [36, 0, 3, 14], [37, 1, 9, 5], [38, 0, 9, 14], [39, 0, 2, 13]]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>